--- a/DispatchRuleEvaluator v8.xlsx
+++ b/DispatchRuleEvaluator v8.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Repos\ENGSCI762-A2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Git\ENGSCI762-A2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1203,23 +1203,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1255,23 +1238,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1454,7 +1420,7 @@
   <dimension ref="A1:BY86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2011,61 +1977,63 @@
       <c r="W6">
         <v>1</v>
       </c>
-      <c r="BG6" t="s">
+    </row>
+    <row r="7" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="BG7" t="s">
         <v>5</v>
       </c>
-      <c r="BH6">
-        <v>1</v>
-      </c>
-      <c r="BI6">
-        <v>1</v>
-      </c>
-      <c r="BJ6">
-        <v>1</v>
-      </c>
-      <c r="BK6">
-        <v>1</v>
-      </c>
-      <c r="BL6">
-        <v>1</v>
-      </c>
-      <c r="BM6">
-        <v>1</v>
-      </c>
-      <c r="BN6">
-        <v>1</v>
-      </c>
-      <c r="BO6">
-        <v>1</v>
-      </c>
-      <c r="BP6">
-        <v>1</v>
-      </c>
-      <c r="BQ6">
-        <v>1</v>
-      </c>
-      <c r="BR6">
-        <v>1</v>
-      </c>
-      <c r="BS6">
-        <v>1</v>
-      </c>
-      <c r="BT6">
-        <v>1</v>
-      </c>
-      <c r="BU6">
-        <v>1</v>
-      </c>
-      <c r="BV6">
-        <v>1</v>
-      </c>
-      <c r="BW6">
-        <v>1</v>
-      </c>
-      <c r="BX6">
-        <v>1</v>
-      </c>
-      <c r="BY6">
+      <c r="BH7">
+        <v>1</v>
+      </c>
+      <c r="BI7">
+        <v>1</v>
+      </c>
+      <c r="BJ7">
+        <v>1</v>
+      </c>
+      <c r="BK7">
+        <v>1</v>
+      </c>
+      <c r="BL7">
+        <v>1</v>
+      </c>
+      <c r="BM7">
+        <v>1</v>
+      </c>
+      <c r="BN7">
+        <v>1</v>
+      </c>
+      <c r="BO7">
+        <v>1</v>
+      </c>
+      <c r="BP7">
+        <v>1</v>
+      </c>
+      <c r="BQ7">
+        <v>1</v>
+      </c>
+      <c r="BR7">
+        <v>1</v>
+      </c>
+      <c r="BS7">
+        <v>1</v>
+      </c>
+      <c r="BT7">
+        <v>1</v>
+      </c>
+      <c r="BU7">
+        <v>1</v>
+      </c>
+      <c r="BV7">
+        <v>1</v>
+      </c>
+      <c r="BW7">
+        <v>1</v>
+      </c>
+      <c r="BX7">
+        <v>1</v>
+      </c>
+      <c r="BY7">
         <v>1</v>
       </c>
     </row>
@@ -2161,14 +2129,14 @@
         <v>3</v>
       </c>
       <c r="Z8">
-        <f t="array" ref="Z8" ca="1">MAX(F8:W8*BH6:BY6)</f>
+        <f t="array" aca="1" ref="Z8" ca="1">MAX(F8:W8*BH7:BY7)</f>
         <v>0.36818181818181817</v>
       </c>
       <c r="AA8" t="s">
         <v>4</v>
       </c>
       <c r="AB8">
-        <f t="array" ref="AB8" ca="1">MAX(($F$1:$W$1*(F8:W8=Z8)*(BH6:BY6)))</f>
+        <f t="array" aca="1" ref="AB8" ca="1">MAX(($F$1:$W$1*(F8:W8=Z8)*(BH7:BY7)))</f>
         <v>1</v>
       </c>
       <c r="AC8" t="s">
@@ -2245,75 +2213,75 @@
         <v>5</v>
       </c>
       <c r="BH8">
-        <f ca="1">AND(BH6,F$1&lt;&gt;$AB8)*1</f>
+        <f ca="1">AND(BH7,F$1&lt;&gt;$AB8)*1</f>
         <v>0</v>
       </c>
       <c r="BI8">
-        <f ca="1">AND(BI6,G$1&lt;&gt;$AB8)*1</f>
+        <f ca="1">AND(BI7,G$1&lt;&gt;$AB8)*1</f>
         <v>1</v>
       </c>
       <c r="BJ8">
-        <f ca="1">AND(BJ6,H$1&lt;&gt;$AB8)*1</f>
+        <f ca="1">AND(BJ7,H$1&lt;&gt;$AB8)*1</f>
         <v>1</v>
       </c>
       <c r="BK8">
-        <f ca="1">AND(BK6,I$1&lt;&gt;$AB8)*1</f>
+        <f ca="1">AND(BK7,I$1&lt;&gt;$AB8)*1</f>
         <v>1</v>
       </c>
       <c r="BL8">
-        <f ca="1">AND(BL6,J$1&lt;&gt;$AB8)*1</f>
+        <f ca="1">AND(BL7,J$1&lt;&gt;$AB8)*1</f>
         <v>1</v>
       </c>
       <c r="BM8">
-        <f ca="1">AND(BM6,K$1&lt;&gt;$AB8)*1</f>
+        <f ca="1">AND(BM7,K$1&lt;&gt;$AB8)*1</f>
         <v>1</v>
       </c>
       <c r="BN8">
-        <f ca="1">AND(BN6,L$1&lt;&gt;$AB8)*1</f>
+        <f ca="1">AND(BN7,L$1&lt;&gt;$AB8)*1</f>
         <v>1</v>
       </c>
       <c r="BO8">
-        <f ca="1">AND(BO6,M$1&lt;&gt;$AB8)*1</f>
+        <f ca="1">AND(BO7,M$1&lt;&gt;$AB8)*1</f>
         <v>1</v>
       </c>
       <c r="BP8">
-        <f ca="1">AND(BP6,N$1&lt;&gt;$AB8)*1</f>
+        <f ca="1">AND(BP7,N$1&lt;&gt;$AB8)*1</f>
         <v>1</v>
       </c>
       <c r="BQ8">
-        <f ca="1">AND(BQ6,O$1&lt;&gt;$AB8)*1</f>
+        <f ca="1">AND(BQ7,O$1&lt;&gt;$AB8)*1</f>
         <v>1</v>
       </c>
       <c r="BR8">
-        <f ca="1">AND(BR6,P$1&lt;&gt;$AB8)*1</f>
+        <f ca="1">AND(BR7,P$1&lt;&gt;$AB8)*1</f>
         <v>1</v>
       </c>
       <c r="BS8">
-        <f ca="1">AND(BS6,Q$1&lt;&gt;$AB8)*1</f>
+        <f ca="1">AND(BS7,Q$1&lt;&gt;$AB8)*1</f>
         <v>1</v>
       </c>
       <c r="BT8">
-        <f ca="1">AND(BT6,R$1&lt;&gt;$AB8)*1</f>
+        <f ca="1">AND(BT7,R$1&lt;&gt;$AB8)*1</f>
         <v>1</v>
       </c>
       <c r="BU8">
-        <f ca="1">AND(BU6,S$1&lt;&gt;$AB8)*1</f>
+        <f ca="1">AND(BU7,S$1&lt;&gt;$AB8)*1</f>
         <v>1</v>
       </c>
       <c r="BV8">
-        <f ca="1">AND(BV6,T$1&lt;&gt;$AB8)*1</f>
+        <f ca="1">AND(BV7,T$1&lt;&gt;$AB8)*1</f>
         <v>1</v>
       </c>
       <c r="BW8">
-        <f ca="1">AND(BW6,U$1&lt;&gt;$AB8)*1</f>
+        <f ca="1">AND(BW7,U$1&lt;&gt;$AB8)*1</f>
         <v>1</v>
       </c>
       <c r="BX8">
-        <f ca="1">AND(BX6,V$1&lt;&gt;$AB8)*1</f>
+        <f ca="1">AND(BX7,V$1&lt;&gt;$AB8)*1</f>
         <v>1</v>
       </c>
       <c r="BY8">
-        <f ca="1">AND(BY6,W$1&lt;&gt;$AB8)*1</f>
+        <f ca="1">AND(BY7,W$1&lt;&gt;$AB8)*1</f>
         <v>1</v>
       </c>
     </row>
@@ -2411,14 +2379,14 @@
         <v>3</v>
       </c>
       <c r="Z9">
-        <f t="array" ref="Z9" ca="1">MAX(F9:W9*BH8:BY8)</f>
+        <f t="array" aca="1" ref="Z9" ca="1">MAX(F9:W9*BH8:BY8)</f>
         <v>0.23015873015873017</v>
       </c>
       <c r="AA9" t="s">
         <v>4</v>
       </c>
       <c r="AB9">
-        <f t="array" ref="AB9" ca="1">MAX(($F$1:$W$1*(F9:W9=Z9)*(BH8:BY8)))</f>
+        <f t="array" aca="1" ref="AB9" ca="1">MAX(($F$1:$W$1*(F9:W9=Z9)*(BH8:BY8)))</f>
         <v>16</v>
       </c>
       <c r="AC9" t="s">
@@ -2661,14 +2629,14 @@
         <v>3</v>
       </c>
       <c r="Z10">
-        <f t="array" ref="Z10" ca="1">MAX(F10:W10*BH9:BY9)</f>
+        <f t="array" aca="1" ref="Z10" ca="1">MAX(F10:W10*BH9:BY9)</f>
         <v>0.17848970251716248</v>
       </c>
       <c r="AA10" t="s">
         <v>4</v>
       </c>
       <c r="AB10">
-        <f t="array" ref="AB10" ca="1">MAX(($F$1:$W$1*(F10:W10=Z10)*(BH9:BY9)))</f>
+        <f t="array" aca="1" ref="AB10" ca="1">MAX(($F$1:$W$1*(F10:W10=Z10)*(BH9:BY9)))</f>
         <v>10</v>
       </c>
       <c r="AC10" t="s">
@@ -2911,14 +2879,14 @@
         <v>3</v>
       </c>
       <c r="Z11">
-        <f t="array" ref="Z11" ca="1">MAX(F11:W11*BH10:BY10)</f>
+        <f t="array" aca="1" ref="Z11" ca="1">MAX(F11:W11*BH10:BY10)</f>
         <v>9.5238095238095233E-2</v>
       </c>
       <c r="AA11" t="s">
         <v>4</v>
       </c>
       <c r="AB11">
-        <f t="array" ref="AB11" ca="1">MAX(($F$1:$W$1*(F11:W11=Z11)*(BH10:BY10)))</f>
+        <f t="array" aca="1" ref="AB11" ca="1">MAX(($F$1:$W$1*(F11:W11=Z11)*(BH10:BY10)))</f>
         <v>3</v>
       </c>
       <c r="AC11" t="s">
@@ -3161,14 +3129,14 @@
         <v>3</v>
       </c>
       <c r="Z12">
-        <f t="array" ref="Z12" ca="1">MAX(F12:W12*BH11:BY11)</f>
+        <f t="array" aca="1" ref="Z12" ca="1">MAX(F12:W12*BH11:BY11)</f>
         <v>2.0909090909090908</v>
       </c>
       <c r="AA12" t="s">
         <v>4</v>
       </c>
       <c r="AB12">
-        <f t="array" ref="AB12" ca="1">MAX(($F$1:$W$1*(F12:W12=Z12)*(BH11:BY11)))</f>
+        <f t="array" aca="1" ref="AB12" ca="1">MAX(($F$1:$W$1*(F12:W12=Z12)*(BH11:BY11)))</f>
         <v>6</v>
       </c>
       <c r="AC12" t="s">
@@ -3411,14 +3379,14 @@
         <v>3</v>
       </c>
       <c r="Z13">
-        <f t="array" ref="Z13" ca="1">MAX(F13:W13*BH12:BY12)</f>
+        <f t="array" aca="1" ref="Z13" ca="1">MAX(F13:W13*BH12:BY12)</f>
         <v>0.29090909090909089</v>
       </c>
       <c r="AA13" t="s">
         <v>4</v>
       </c>
       <c r="AB13">
-        <f t="array" ref="AB13" ca="1">MAX(($F$1:$W$1*(F13:W13=Z13)*(BH12:BY12)))</f>
+        <f t="array" aca="1" ref="AB13" ca="1">MAX(($F$1:$W$1*(F13:W13=Z13)*(BH12:BY12)))</f>
         <v>14</v>
       </c>
       <c r="AC13" t="s">
@@ -3661,14 +3629,14 @@
         <v>3</v>
       </c>
       <c r="Z14">
-        <f t="array" ref="Z14" ca="1">MAX(F14:W14*BH13:BY13)</f>
+        <f t="array" aca="1" ref="Z14" ca="1">MAX(F14:W14*BH13:BY13)</f>
         <v>6.7857142857142847</v>
       </c>
       <c r="AA14" t="s">
         <v>4</v>
       </c>
       <c r="AB14">
-        <f t="array" ref="AB14" ca="1">MAX(($F$1:$W$1*(F14:W14=Z14)*(BH13:BY13)))</f>
+        <f t="array" aca="1" ref="AB14" ca="1">MAX(($F$1:$W$1*(F14:W14=Z14)*(BH13:BY13)))</f>
         <v>17</v>
       </c>
       <c r="AC14" t="s">
@@ -3911,14 +3879,14 @@
         <v>3</v>
       </c>
       <c r="Z15">
-        <f t="array" ref="Z15" ca="1">MAX(F15:W15*BH14:BY14)</f>
+        <f t="array" aca="1" ref="Z15" ca="1">MAX(F15:W15*BH14:BY14)</f>
         <v>0.82561983471074385</v>
       </c>
       <c r="AA15" t="s">
         <v>4</v>
       </c>
       <c r="AB15">
-        <f t="array" ref="AB15" ca="1">MAX(($F$1:$W$1*(F15:W15=Z15)*(BH14:BY14)))</f>
+        <f t="array" aca="1" ref="AB15" ca="1">MAX(($F$1:$W$1*(F15:W15=Z15)*(BH14:BY14)))</f>
         <v>8</v>
       </c>
       <c r="AC15" t="s">
@@ -4161,14 +4129,14 @@
         <v>3</v>
       </c>
       <c r="Z16">
-        <f t="array" ref="Z16" ca="1">MAX(F16:W16*BH15:BY15)</f>
+        <f t="array" aca="1" ref="Z16" ca="1">MAX(F16:W16*BH15:BY15)</f>
         <v>2.7096774193548385</v>
       </c>
       <c r="AA16" t="s">
         <v>4</v>
       </c>
       <c r="AB16">
-        <f t="array" ref="AB16" ca="1">MAX(($F$1:$W$1*(F16:W16=Z16)*(BH15:BY15)))</f>
+        <f t="array" aca="1" ref="AB16" ca="1">MAX(($F$1:$W$1*(F16:W16=Z16)*(BH15:BY15)))</f>
         <v>5</v>
       </c>
       <c r="AC16" t="s">
@@ -4411,14 +4379,14 @@
         <v>3</v>
       </c>
       <c r="Z17">
-        <f t="array" ref="Z17" ca="1">MAX(F17:W17*BH16:BY16)</f>
+        <f t="array" aca="1" ref="Z17" ca="1">MAX(F17:W17*BH16:BY16)</f>
         <v>4.958333333333333</v>
       </c>
       <c r="AA17" t="s">
         <v>4</v>
       </c>
       <c r="AB17">
-        <f t="array" ref="AB17" ca="1">MAX(($F$1:$W$1*(F17:W17=Z17)*(BH16:BY16)))</f>
+        <f t="array" aca="1" ref="AB17" ca="1">MAX(($F$1:$W$1*(F17:W17=Z17)*(BH16:BY16)))</f>
         <v>2</v>
       </c>
       <c r="AC17" t="s">
@@ -4661,14 +4629,14 @@
         <v>3</v>
       </c>
       <c r="Z18">
-        <f t="array" ref="Z18" ca="1">MAX(F18:W18*BH17:BY17)</f>
+        <f t="array" aca="1" ref="Z18" ca="1">MAX(F18:W18*BH17:BY17)</f>
         <v>0.73239436619718312</v>
       </c>
       <c r="AA18" t="s">
         <v>4</v>
       </c>
       <c r="AB18">
-        <f t="array" ref="AB18" ca="1">MAX(($F$1:$W$1*(F18:W18=Z18)*(BH17:BY17)))</f>
+        <f t="array" aca="1" ref="AB18" ca="1">MAX(($F$1:$W$1*(F18:W18=Z18)*(BH17:BY17)))</f>
         <v>11</v>
       </c>
       <c r="AC18" t="s">
@@ -4911,14 +4879,14 @@
         <v>3</v>
       </c>
       <c r="Z19">
-        <f t="array" ref="Z19" ca="1">MAX(F19:W19*BH18:BY18)</f>
+        <f t="array" aca="1" ref="Z19" ca="1">MAX(F19:W19*BH18:BY18)</f>
         <v>0.17777777777777778</v>
       </c>
       <c r="AA19" t="s">
         <v>4</v>
       </c>
       <c r="AB19">
-        <f t="array" ref="AB19" ca="1">MAX(($F$1:$W$1*(F19:W19=Z19)*(BH18:BY18)))</f>
+        <f t="array" aca="1" ref="AB19" ca="1">MAX(($F$1:$W$1*(F19:W19=Z19)*(BH18:BY18)))</f>
         <v>9</v>
       </c>
       <c r="AC19" t="s">
@@ -5161,14 +5129,14 @@
         <v>3</v>
       </c>
       <c r="Z20">
-        <f t="array" ref="Z20" ca="1">MAX(F20:W20*BH19:BY19)</f>
+        <f t="array" aca="1" ref="Z20" ca="1">MAX(F20:W20*BH19:BY19)</f>
         <v>0.64285714285714279</v>
       </c>
       <c r="AA20" t="s">
         <v>4</v>
       </c>
       <c r="AB20">
-        <f t="array" ref="AB20" ca="1">MAX(($F$1:$W$1*(F20:W20=Z20)*(BH19:BY19)))</f>
+        <f t="array" aca="1" ref="AB20" ca="1">MAX(($F$1:$W$1*(F20:W20=Z20)*(BH19:BY19)))</f>
         <v>12</v>
       </c>
       <c r="AC20" t="s">
@@ -5411,14 +5379,14 @@
         <v>3</v>
       </c>
       <c r="Z21">
-        <f t="array" ref="Z21" ca="1">MAX(F21:W21*BH20:BY20)</f>
+        <f t="array" aca="1" ref="Z21" ca="1">MAX(F21:W21*BH20:BY20)</f>
         <v>0.6875</v>
       </c>
       <c r="AA21" t="s">
         <v>4</v>
       </c>
       <c r="AB21">
-        <f t="array" ref="AB21" ca="1">MAX(($F$1:$W$1*(F21:W21=Z21)*(BH20:BY20)))</f>
+        <f t="array" aca="1" ref="AB21" ca="1">MAX(($F$1:$W$1*(F21:W21=Z21)*(BH20:BY20)))</f>
         <v>18</v>
       </c>
       <c r="AC21" t="s">
@@ -5661,14 +5629,14 @@
         <v>3</v>
       </c>
       <c r="Z22">
-        <f t="array" ref="Z22" ca="1">MAX(F22:W22*BH21:BY21)</f>
+        <f t="array" aca="1" ref="Z22" ca="1">MAX(F22:W22*BH21:BY21)</f>
         <v>0.73051948051948046</v>
       </c>
       <c r="AA22" t="s">
         <v>4</v>
       </c>
       <c r="AB22">
-        <f t="array" ref="AB22" ca="1">MAX(($F$1:$W$1*(F22:W22=Z22)*(BH21:BY21)))</f>
+        <f t="array" aca="1" ref="AB22" ca="1">MAX(($F$1:$W$1*(F22:W22=Z22)*(BH21:BY21)))</f>
         <v>15</v>
       </c>
       <c r="AC22" t="s">
@@ -5911,14 +5879,14 @@
         <v>3</v>
       </c>
       <c r="Z23">
-        <f t="array" ref="Z23" ca="1">MAX(F23:W23*BH22:BY22)</f>
+        <f t="array" aca="1" ref="Z23" ca="1">MAX(F23:W23*BH22:BY22)</f>
         <v>0.52127659574468088</v>
       </c>
       <c r="AA23" t="s">
         <v>4</v>
       </c>
       <c r="AB23">
-        <f t="array" ref="AB23" ca="1">MAX(($F$1:$W$1*(F23:W23=Z23)*(BH22:BY22)))</f>
+        <f t="array" aca="1" ref="AB23" ca="1">MAX(($F$1:$W$1*(F23:W23=Z23)*(BH22:BY22)))</f>
         <v>4</v>
       </c>
       <c r="AC23" t="s">
@@ -6161,14 +6129,14 @@
         <v>3</v>
       </c>
       <c r="Z24">
-        <f t="array" ref="Z24" ca="1">MAX(F24:W24*BH23:BY23)</f>
+        <f t="array" aca="1" ref="Z24" ca="1">MAX(F24:W24*BH23:BY23)</f>
         <v>1.7307692307692308</v>
       </c>
       <c r="AA24" t="s">
         <v>4</v>
       </c>
       <c r="AB24">
-        <f t="array" ref="AB24" ca="1">MAX(($F$1:$W$1*(F24:W24=Z24)*(BH23:BY23)))</f>
+        <f t="array" aca="1" ref="AB24" ca="1">MAX(($F$1:$W$1*(F24:W24=Z24)*(BH23:BY23)))</f>
         <v>7</v>
       </c>
       <c r="AC24" t="s">
@@ -6411,14 +6379,14 @@
         <v>3</v>
       </c>
       <c r="Z25">
-        <f t="array" ref="Z25" ca="1">MAX(F25:W25*BH24:BY24)</f>
+        <f t="array" aca="1" ref="Z25" ca="1">MAX(F25:W25*BH24:BY24)</f>
         <v>0.84444444444444455</v>
       </c>
       <c r="AA25" t="s">
         <v>4</v>
       </c>
       <c r="AB25">
-        <f t="array" ref="AB25" ca="1">MAX(($F$1:$W$1*(F25:W25=Z25)*(BH24:BY24)))</f>
+        <f t="array" aca="1" ref="AB25" ca="1">MAX(($F$1:$W$1*(F25:W25=Z25)*(BH24:BY24)))</f>
         <v>13</v>
       </c>
       <c r="AC25" t="s">

--- a/DispatchRuleEvaluator v8.xlsx
+++ b/DispatchRuleEvaluator v8.xlsx
@@ -1420,7 +1420,7 @@
   <dimension ref="A1:BY86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1631,9 +1631,6 @@
       </c>
     </row>
     <row r="3" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>0</v>
-      </c>
       <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
@@ -2213,75 +2210,75 @@
         <v>5</v>
       </c>
       <c r="BH8">
-        <f ca="1">AND(BH7,F$1&lt;&gt;$AB8)*1</f>
+        <f t="shared" ref="BH8:BY8" ca="1" si="7">AND(BH7,F$1&lt;&gt;$AB8)*1</f>
         <v>0</v>
       </c>
       <c r="BI8">
-        <f ca="1">AND(BI7,G$1&lt;&gt;$AB8)*1</f>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="BJ8">
-        <f ca="1">AND(BJ7,H$1&lt;&gt;$AB8)*1</f>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="BK8">
-        <f ca="1">AND(BK7,I$1&lt;&gt;$AB8)*1</f>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="BL8">
-        <f ca="1">AND(BL7,J$1&lt;&gt;$AB8)*1</f>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="BM8">
-        <f ca="1">AND(BM7,K$1&lt;&gt;$AB8)*1</f>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="BN8">
-        <f ca="1">AND(BN7,L$1&lt;&gt;$AB8)*1</f>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="BO8">
-        <f ca="1">AND(BO7,M$1&lt;&gt;$AB8)*1</f>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="BP8">
-        <f ca="1">AND(BP7,N$1&lt;&gt;$AB8)*1</f>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="BQ8">
-        <f ca="1">AND(BQ7,O$1&lt;&gt;$AB8)*1</f>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="BR8">
-        <f ca="1">AND(BR7,P$1&lt;&gt;$AB8)*1</f>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="BS8">
-        <f ca="1">AND(BS7,Q$1&lt;&gt;$AB8)*1</f>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="BT8">
-        <f ca="1">AND(BT7,R$1&lt;&gt;$AB8)*1</f>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="BU8">
-        <f ca="1">AND(BU7,S$1&lt;&gt;$AB8)*1</f>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="BV8">
-        <f ca="1">AND(BV7,T$1&lt;&gt;$AB8)*1</f>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="BW8">
-        <f ca="1">AND(BW7,U$1&lt;&gt;$AB8)*1</f>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="BX8">
-        <f ca="1">AND(BX7,V$1&lt;&gt;$AB8)*1</f>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="BY8">
-        <f ca="1">AND(BY7,W$1&lt;&gt;$AB8)*1</f>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -2290,7 +2287,7 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <f t="shared" ref="B9:B17" ca="1" si="7">AY8</f>
+        <f t="shared" ref="B9:B17" ca="1" si="8">AY8</f>
         <v>15</v>
       </c>
       <c r="C9" t="s">
@@ -2304,7 +2301,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" ref="F9:U25" ca="1" si="8">(1/F$3+$B$2/(MAX(OFFSET($Z$3,$D9-1,F$5-1),$B$6)))*F$6*1/(MAX(F$4-F$2-$B9,$B$5)^$B$4)</f>
+        <f t="shared" ref="F9:U25" ca="1" si="9">(1/F$3+$B$2/(MAX(OFFSET($Z$3,$D9-1,F$5-1),$B$6)))*F$6*1/(MAX(F$4-F$2-$B9,$B$5)^$B$4)</f>
         <v>0.50624999999999998</v>
       </c>
       <c r="G9" s="3">
@@ -2407,7 +2404,7 @@
         <v>21</v>
       </c>
       <c r="AJ9">
-        <f t="shared" ref="AJ9:AJ25" ca="1" si="9">OFFSET($E$6,0,AB9)</f>
+        <f t="shared" ref="AJ9:AJ25" ca="1" si="10">OFFSET($E$6,0,AB9)</f>
         <v>1</v>
       </c>
       <c r="AL9" t="s">
@@ -2421,7 +2418,7 @@
         <v>17</v>
       </c>
       <c r="AP9">
-        <f t="shared" ref="AP9:AP25" ca="1" si="10">OFFSET($E$5,0,AB9)</f>
+        <f t="shared" ref="AP9:AP25" ca="1" si="11">OFFSET($E$5,0,AB9)</f>
         <v>1</v>
       </c>
       <c r="AR9" t="s">
@@ -2435,14 +2432,14 @@
         <v>15</v>
       </c>
       <c r="AV9">
-        <f t="shared" ref="AV9:AV25" ca="1" si="11">MAX(B9+AS9,AG9)</f>
+        <f t="shared" ref="AV9:AV25" ca="1" si="12">MAX(B9+AS9,AG9)</f>
         <v>15</v>
       </c>
       <c r="AX9" t="s">
         <v>9</v>
       </c>
       <c r="AY9">
-        <f t="shared" ref="AY9:AY25" ca="1" si="12">AV9+AD9</f>
+        <f t="shared" ref="AY9:AY25" ca="1" si="13">AV9+AD9</f>
         <v>25</v>
       </c>
       <c r="BA9" t="s">
@@ -2456,82 +2453,82 @@
         <v>14</v>
       </c>
       <c r="BE9">
-        <f t="shared" ref="BE9:BE25" ca="1" si="13">AY9-AG9</f>
+        <f t="shared" ref="BE9:BE25" ca="1" si="14">AY9-AG9</f>
         <v>11</v>
       </c>
       <c r="BG9" t="s">
         <v>5</v>
       </c>
       <c r="BH9">
-        <f t="shared" ref="BH9:BH25" ca="1" si="14">AND(BH8,F$1&lt;&gt;$AB9)*1</f>
+        <f t="shared" ref="BH9:BH25" ca="1" si="15">AND(BH8,F$1&lt;&gt;$AB9)*1</f>
         <v>0</v>
       </c>
       <c r="BI9">
-        <f t="shared" ref="BI9:BI25" ca="1" si="15">AND(BI8,G$1&lt;&gt;$AB9)*1</f>
+        <f t="shared" ref="BI9:BI25" ca="1" si="16">AND(BI8,G$1&lt;&gt;$AB9)*1</f>
         <v>1</v>
       </c>
       <c r="BJ9">
-        <f t="shared" ref="BJ9:BJ25" ca="1" si="16">AND(BJ8,H$1&lt;&gt;$AB9)*1</f>
+        <f t="shared" ref="BJ9:BJ25" ca="1" si="17">AND(BJ8,H$1&lt;&gt;$AB9)*1</f>
         <v>1</v>
       </c>
       <c r="BK9">
-        <f t="shared" ref="BK9:BK25" ca="1" si="17">AND(BK8,I$1&lt;&gt;$AB9)*1</f>
+        <f t="shared" ref="BK9:BK25" ca="1" si="18">AND(BK8,I$1&lt;&gt;$AB9)*1</f>
         <v>1</v>
       </c>
       <c r="BL9">
-        <f t="shared" ref="BL9:BL25" ca="1" si="18">AND(BL8,J$1&lt;&gt;$AB9)*1</f>
+        <f t="shared" ref="BL9:BL25" ca="1" si="19">AND(BL8,J$1&lt;&gt;$AB9)*1</f>
         <v>1</v>
       </c>
       <c r="BM9">
-        <f t="shared" ref="BM9:BM25" ca="1" si="19">AND(BM8,K$1&lt;&gt;$AB9)*1</f>
+        <f t="shared" ref="BM9:BM25" ca="1" si="20">AND(BM8,K$1&lt;&gt;$AB9)*1</f>
         <v>1</v>
       </c>
       <c r="BN9">
-        <f t="shared" ref="BN9:BN25" ca="1" si="20">AND(BN8,L$1&lt;&gt;$AB9)*1</f>
+        <f t="shared" ref="BN9:BN25" ca="1" si="21">AND(BN8,L$1&lt;&gt;$AB9)*1</f>
         <v>1</v>
       </c>
       <c r="BO9">
-        <f t="shared" ref="BO9:BO25" ca="1" si="21">AND(BO8,M$1&lt;&gt;$AB9)*1</f>
+        <f t="shared" ref="BO9:BO25" ca="1" si="22">AND(BO8,M$1&lt;&gt;$AB9)*1</f>
         <v>1</v>
       </c>
       <c r="BP9">
-        <f t="shared" ref="BP9:BP25" ca="1" si="22">AND(BP8,N$1&lt;&gt;$AB9)*1</f>
+        <f t="shared" ref="BP9:BP25" ca="1" si="23">AND(BP8,N$1&lt;&gt;$AB9)*1</f>
         <v>1</v>
       </c>
       <c r="BQ9">
-        <f t="shared" ref="BQ9:BQ25" ca="1" si="23">AND(BQ8,O$1&lt;&gt;$AB9)*1</f>
+        <f t="shared" ref="BQ9:BQ25" ca="1" si="24">AND(BQ8,O$1&lt;&gt;$AB9)*1</f>
         <v>1</v>
       </c>
       <c r="BR9">
-        <f t="shared" ref="BR9:BR25" ca="1" si="24">AND(BR8,P$1&lt;&gt;$AB9)*1</f>
+        <f t="shared" ref="BR9:BR25" ca="1" si="25">AND(BR8,P$1&lt;&gt;$AB9)*1</f>
         <v>1</v>
       </c>
       <c r="BS9">
-        <f t="shared" ref="BS9:BS25" ca="1" si="25">AND(BS8,Q$1&lt;&gt;$AB9)*1</f>
+        <f t="shared" ref="BS9:BS25" ca="1" si="26">AND(BS8,Q$1&lt;&gt;$AB9)*1</f>
         <v>1</v>
       </c>
       <c r="BT9">
-        <f t="shared" ref="BT9:BT25" ca="1" si="26">AND(BT8,R$1&lt;&gt;$AB9)*1</f>
+        <f t="shared" ref="BT9:BT25" ca="1" si="27">AND(BT8,R$1&lt;&gt;$AB9)*1</f>
         <v>1</v>
       </c>
       <c r="BU9">
-        <f t="shared" ref="BU9:BU25" ca="1" si="27">AND(BU8,S$1&lt;&gt;$AB9)*1</f>
+        <f t="shared" ref="BU9:BU25" ca="1" si="28">AND(BU8,S$1&lt;&gt;$AB9)*1</f>
         <v>1</v>
       </c>
       <c r="BV9">
-        <f t="shared" ref="BV9:BV25" ca="1" si="28">AND(BV8,T$1&lt;&gt;$AB9)*1</f>
+        <f t="shared" ref="BV9:BV25" ca="1" si="29">AND(BV8,T$1&lt;&gt;$AB9)*1</f>
         <v>1</v>
       </c>
       <c r="BW9">
-        <f t="shared" ref="BW9:BW25" ca="1" si="29">AND(BW8,U$1&lt;&gt;$AB9)*1</f>
+        <f t="shared" ref="BW9:BW25" ca="1" si="30">AND(BW8,U$1&lt;&gt;$AB9)*1</f>
         <v>0</v>
       </c>
       <c r="BX9">
-        <f t="shared" ref="BX9:BX25" ca="1" si="30">AND(BX8,V$1&lt;&gt;$AB9)*1</f>
+        <f t="shared" ref="BX9:BX25" ca="1" si="31">AND(BX8,V$1&lt;&gt;$AB9)*1</f>
         <v>1</v>
       </c>
       <c r="BY9">
-        <f t="shared" ref="BY9:BY25" ca="1" si="31">AND(BY8,W$1&lt;&gt;$AB9)*1</f>
+        <f t="shared" ref="BY9:BY25" ca="1" si="32">AND(BY8,W$1&lt;&gt;$AB9)*1</f>
         <v>1</v>
       </c>
     </row>
@@ -2540,21 +2537,21 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
       </c>
       <c r="D10">
-        <f t="shared" ref="D10:D25" ca="1" si="32">AP9</f>
+        <f t="shared" ref="D10:D25" ca="1" si="33">AP9</f>
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.67500000000000004</v>
       </c>
       <c r="G10" s="3">
@@ -2657,7 +2654,7 @@
         <v>21</v>
       </c>
       <c r="AJ10">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>2</v>
       </c>
       <c r="AL10" t="s">
@@ -2671,7 +2668,7 @@
         <v>17</v>
       </c>
       <c r="AP10">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
       <c r="AR10" t="s">
@@ -2685,14 +2682,14 @@
         <v>15</v>
       </c>
       <c r="AV10">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>25</v>
       </c>
       <c r="AX10" t="s">
         <v>9</v>
       </c>
       <c r="AY10">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>35</v>
       </c>
       <c r="BA10" t="s">
@@ -2706,82 +2703,82 @@
         <v>14</v>
       </c>
       <c r="BE10">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>16</v>
       </c>
       <c r="BG10" t="s">
         <v>5</v>
       </c>
       <c r="BH10">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
       <c r="BI10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="BJ10">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1</v>
       </c>
       <c r="BK10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="BL10">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1</v>
       </c>
       <c r="BM10">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>1</v>
       </c>
       <c r="BN10">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>1</v>
       </c>
       <c r="BO10">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>1</v>
       </c>
       <c r="BP10">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>1</v>
       </c>
       <c r="BQ10">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="BR10">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v>1</v>
       </c>
       <c r="BS10">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="26"/>
         <v>1</v>
       </c>
       <c r="BT10">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v>1</v>
       </c>
       <c r="BU10">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>1</v>
       </c>
       <c r="BV10">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="29"/>
         <v>1</v>
       </c>
       <c r="BW10">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="BX10">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>1</v>
       </c>
       <c r="BY10">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="32"/>
         <v>1</v>
       </c>
     </row>
@@ -2790,21 +2787,21 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>35</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
       </c>
       <c r="D11">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1.0125</v>
       </c>
       <c r="G11" s="3">
@@ -2907,7 +2904,7 @@
         <v>21</v>
       </c>
       <c r="AJ11">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="AL11" t="s">
@@ -2921,7 +2918,7 @@
         <v>17</v>
       </c>
       <c r="AP11">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>3</v>
       </c>
       <c r="AR11" t="s">
@@ -2935,14 +2932,14 @@
         <v>15</v>
       </c>
       <c r="AV11">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>42</v>
       </c>
       <c r="AX11" t="s">
         <v>9</v>
       </c>
       <c r="AY11">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>49</v>
       </c>
       <c r="BA11" t="s">
@@ -2956,82 +2953,82 @@
         <v>14</v>
       </c>
       <c r="BE11">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>42</v>
       </c>
       <c r="BG11" t="s">
         <v>5</v>
       </c>
       <c r="BH11">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
       <c r="BI11">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="BJ11">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
       <c r="BK11">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="BL11">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1</v>
       </c>
       <c r="BM11">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>1</v>
       </c>
       <c r="BN11">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>1</v>
       </c>
       <c r="BO11">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>1</v>
       </c>
       <c r="BP11">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>1</v>
       </c>
       <c r="BQ11">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="BR11">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v>1</v>
       </c>
       <c r="BS11">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="26"/>
         <v>1</v>
       </c>
       <c r="BT11">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v>1</v>
       </c>
       <c r="BU11">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>1</v>
       </c>
       <c r="BV11">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="29"/>
         <v>1</v>
       </c>
       <c r="BW11">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="BX11">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>1</v>
       </c>
       <c r="BY11">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="32"/>
         <v>1</v>
       </c>
     </row>
@@ -3040,21 +3037,21 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>49</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1.125</v>
       </c>
       <c r="G12" s="3">
@@ -3157,7 +3154,7 @@
         <v>21</v>
       </c>
       <c r="AJ12">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>7</v>
       </c>
       <c r="AL12" t="s">
@@ -3171,7 +3168,7 @@
         <v>17</v>
       </c>
       <c r="AP12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>3</v>
       </c>
       <c r="AR12" t="s">
@@ -3185,14 +3182,14 @@
         <v>15</v>
       </c>
       <c r="AV12">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>49</v>
       </c>
       <c r="AX12" t="s">
         <v>9</v>
       </c>
       <c r="AY12">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>63</v>
       </c>
       <c r="BA12" t="s">
@@ -3206,82 +3203,82 @@
         <v>14</v>
       </c>
       <c r="BE12">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>52</v>
       </c>
       <c r="BG12" t="s">
         <v>5</v>
       </c>
       <c r="BH12">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
       <c r="BI12">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="BJ12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
       <c r="BK12">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="BL12">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1</v>
       </c>
       <c r="BM12">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="BN12">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>1</v>
       </c>
       <c r="BO12">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>1</v>
       </c>
       <c r="BP12">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>1</v>
       </c>
       <c r="BQ12">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="BR12">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v>1</v>
       </c>
       <c r="BS12">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="26"/>
         <v>1</v>
       </c>
       <c r="BT12">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v>1</v>
       </c>
       <c r="BU12">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>1</v>
       </c>
       <c r="BV12">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="29"/>
         <v>1</v>
       </c>
       <c r="BW12">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="BX12">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>1</v>
       </c>
       <c r="BY12">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="32"/>
         <v>1</v>
       </c>
     </row>
@@ -3290,21 +3287,21 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>63</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
       </c>
       <c r="D13">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>2.25</v>
       </c>
       <c r="G13" s="3">
@@ -3407,7 +3404,7 @@
         <v>21</v>
       </c>
       <c r="AJ13">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>4</v>
       </c>
       <c r="AL13" t="s">
@@ -3421,7 +3418,7 @@
         <v>17</v>
       </c>
       <c r="AP13">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>2</v>
       </c>
       <c r="AR13" t="s">
@@ -3435,14 +3432,14 @@
         <v>15</v>
       </c>
       <c r="AV13">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>68</v>
       </c>
       <c r="AX13" t="s">
         <v>9</v>
       </c>
       <c r="AY13">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>71</v>
       </c>
       <c r="BA13" t="s">
@@ -3456,82 +3453,82 @@
         <v>14</v>
       </c>
       <c r="BE13">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>60</v>
       </c>
       <c r="BG13" t="s">
         <v>5</v>
       </c>
       <c r="BH13">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
       <c r="BI13">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="BJ13">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
       <c r="BK13">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="BL13">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1</v>
       </c>
       <c r="BM13">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="BN13">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>1</v>
       </c>
       <c r="BO13">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>1</v>
       </c>
       <c r="BP13">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>1</v>
       </c>
       <c r="BQ13">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="BR13">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v>1</v>
       </c>
       <c r="BS13">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="26"/>
         <v>1</v>
       </c>
       <c r="BT13">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v>1</v>
       </c>
       <c r="BU13">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="BV13">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="29"/>
         <v>1</v>
       </c>
       <c r="BW13">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="BX13">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>1</v>
       </c>
       <c r="BY13">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="32"/>
         <v>1</v>
       </c>
     </row>
@@ -3540,21 +3537,21 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>71</v>
       </c>
       <c r="C14" t="s">
         <v>20</v>
       </c>
       <c r="D14">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>2</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1.1785714285714286</v>
       </c>
       <c r="G14" s="3">
@@ -3657,7 +3654,7 @@
         <v>21</v>
       </c>
       <c r="AJ14">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>10</v>
       </c>
       <c r="AL14" t="s">
@@ -3671,7 +3668,7 @@
         <v>17</v>
       </c>
       <c r="AP14">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>2</v>
       </c>
       <c r="AR14" t="s">
@@ -3685,14 +3682,14 @@
         <v>15</v>
       </c>
       <c r="AV14">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>71</v>
       </c>
       <c r="AX14" t="s">
         <v>9</v>
       </c>
       <c r="AY14">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>84</v>
       </c>
       <c r="BA14" t="s">
@@ -3706,82 +3703,82 @@
         <v>14</v>
       </c>
       <c r="BE14">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>56</v>
       </c>
       <c r="BG14" t="s">
         <v>5</v>
       </c>
       <c r="BH14">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
       <c r="BI14">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="BJ14">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
       <c r="BK14">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="BL14">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1</v>
       </c>
       <c r="BM14">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="BN14">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>1</v>
       </c>
       <c r="BO14">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>1</v>
       </c>
       <c r="BP14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>1</v>
       </c>
       <c r="BQ14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="BR14">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v>1</v>
       </c>
       <c r="BS14">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="26"/>
         <v>1</v>
       </c>
       <c r="BT14">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v>1</v>
       </c>
       <c r="BU14">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="BV14">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="29"/>
         <v>1</v>
       </c>
       <c r="BW14">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="BX14">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="BY14">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="32"/>
         <v>1</v>
       </c>
     </row>
@@ -3790,21 +3787,21 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>84</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
       </c>
       <c r="D15">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>2</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1.1785714285714286</v>
       </c>
       <c r="G15" s="3">
@@ -3907,7 +3904,7 @@
         <v>21</v>
       </c>
       <c r="AJ15">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>9</v>
       </c>
       <c r="AL15" t="s">
@@ -3921,7 +3918,7 @@
         <v>17</v>
       </c>
       <c r="AP15">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>2</v>
       </c>
       <c r="AR15" t="s">
@@ -3935,14 +3932,14 @@
         <v>15</v>
       </c>
       <c r="AV15">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>84</v>
       </c>
       <c r="AX15" t="s">
         <v>9</v>
       </c>
       <c r="AY15">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>100</v>
       </c>
       <c r="BA15" t="s">
@@ -3956,82 +3953,82 @@
         <v>14</v>
       </c>
       <c r="BE15">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>45</v>
       </c>
       <c r="BG15" t="s">
         <v>5</v>
       </c>
       <c r="BH15">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
       <c r="BI15">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="BJ15">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
       <c r="BK15">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="BL15">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1</v>
       </c>
       <c r="BM15">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="BN15">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>1</v>
       </c>
       <c r="BO15">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
       <c r="BP15">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>1</v>
       </c>
       <c r="BQ15">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="BR15">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v>1</v>
       </c>
       <c r="BS15">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="26"/>
         <v>1</v>
       </c>
       <c r="BT15">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v>1</v>
       </c>
       <c r="BU15">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="BV15">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="29"/>
         <v>1</v>
       </c>
       <c r="BW15">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="BX15">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="BY15">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="32"/>
         <v>1</v>
       </c>
     </row>
@@ -4040,21 +4037,21 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>100</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
       </c>
       <c r="D16">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>2</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1.1785714285714286</v>
       </c>
       <c r="G16" s="3">
@@ -4157,7 +4154,7 @@
         <v>21</v>
       </c>
       <c r="AJ16">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>4</v>
       </c>
       <c r="AL16" t="s">
@@ -4171,7 +4168,7 @@
         <v>17</v>
       </c>
       <c r="AP16">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>2</v>
       </c>
       <c r="AR16" t="s">
@@ -4185,14 +4182,14 @@
         <v>15</v>
       </c>
       <c r="AV16">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>100</v>
       </c>
       <c r="AX16" t="s">
         <v>9</v>
       </c>
       <c r="AY16">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>111</v>
       </c>
       <c r="BA16" t="s">
@@ -4206,82 +4203,82 @@
         <v>14</v>
       </c>
       <c r="BE16">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>80</v>
       </c>
       <c r="BG16" t="s">
         <v>5</v>
       </c>
       <c r="BH16">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
       <c r="BI16">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="BJ16">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
       <c r="BK16">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="BL16">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="BM16">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="BN16">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>1</v>
       </c>
       <c r="BO16">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
       <c r="BP16">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>1</v>
       </c>
       <c r="BQ16">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="BR16">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v>1</v>
       </c>
       <c r="BS16">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="26"/>
         <v>1</v>
       </c>
       <c r="BT16">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v>1</v>
       </c>
       <c r="BU16">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="BV16">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="29"/>
         <v>1</v>
       </c>
       <c r="BW16">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="BX16">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="BY16">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="32"/>
         <v>1</v>
       </c>
     </row>
@@ -4290,21 +4287,21 @@
         <v>13</v>
       </c>
       <c r="B17">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>111</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
       </c>
       <c r="D17">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>2</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1.1785714285714286</v>
       </c>
       <c r="G17" s="3">
@@ -4407,7 +4404,7 @@
         <v>21</v>
       </c>
       <c r="AJ17">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>7</v>
       </c>
       <c r="AL17" t="s">
@@ -4421,7 +4418,7 @@
         <v>17</v>
       </c>
       <c r="AP17">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>2</v>
       </c>
       <c r="AR17" t="s">
@@ -4435,14 +4432,14 @@
         <v>15</v>
       </c>
       <c r="AV17">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>111</v>
       </c>
       <c r="AX17" t="s">
         <v>9</v>
       </c>
       <c r="AY17">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>123</v>
       </c>
       <c r="BA17" t="s">
@@ -4456,82 +4453,82 @@
         <v>14</v>
       </c>
       <c r="BE17">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>115</v>
       </c>
       <c r="BG17" t="s">
         <v>5</v>
       </c>
       <c r="BH17">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
       <c r="BI17">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BJ17">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
       <c r="BK17">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="BL17">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="BM17">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="BN17">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>1</v>
       </c>
       <c r="BO17">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
       <c r="BP17">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>1</v>
       </c>
       <c r="BQ17">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="BR17">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v>1</v>
       </c>
       <c r="BS17">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="26"/>
         <v>1</v>
       </c>
       <c r="BT17">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v>1</v>
       </c>
       <c r="BU17">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="BV17">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="29"/>
         <v>1</v>
       </c>
       <c r="BW17">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="BX17">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="BY17">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="32"/>
         <v>1</v>
       </c>
     </row>
@@ -4540,21 +4537,21 @@
         <v>13</v>
       </c>
       <c r="B18">
-        <f t="shared" ref="B18:B25" ca="1" si="33">AY17</f>
+        <f t="shared" ref="B18:B25" ca="1" si="34">AY17</f>
         <v>123</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
       </c>
       <c r="D18">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>2</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1.1785714285714286</v>
       </c>
       <c r="G18" s="3">
@@ -4657,7 +4654,7 @@
         <v>21</v>
       </c>
       <c r="AJ18">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>8</v>
       </c>
       <c r="AL18" t="s">
@@ -4671,7 +4668,7 @@
         <v>17</v>
       </c>
       <c r="AP18">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>2</v>
       </c>
       <c r="AR18" t="s">
@@ -4685,14 +4682,14 @@
         <v>15</v>
       </c>
       <c r="AV18">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>123</v>
       </c>
       <c r="AX18" t="s">
         <v>9</v>
       </c>
       <c r="AY18">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>130</v>
       </c>
       <c r="BA18" t="s">
@@ -4706,82 +4703,82 @@
         <v>14</v>
       </c>
       <c r="BE18">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>59</v>
       </c>
       <c r="BG18" t="s">
         <v>5</v>
       </c>
       <c r="BH18">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
       <c r="BI18">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BJ18">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
       <c r="BK18">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="BL18">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="BM18">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="BN18">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>1</v>
       </c>
       <c r="BO18">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
       <c r="BP18">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>1</v>
       </c>
       <c r="BQ18">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="BR18">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="BS18">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="26"/>
         <v>1</v>
       </c>
       <c r="BT18">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v>1</v>
       </c>
       <c r="BU18">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="BV18">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="29"/>
         <v>1</v>
       </c>
       <c r="BW18">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="BX18">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="BY18">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="32"/>
         <v>1</v>
       </c>
     </row>
@@ -4790,21 +4787,21 @@
         <v>13</v>
       </c>
       <c r="B19">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="34"/>
         <v>130</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
       </c>
       <c r="D19">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>2</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1.1785714285714286</v>
       </c>
       <c r="G19" s="3">
@@ -4907,7 +4904,7 @@
         <v>21</v>
       </c>
       <c r="AJ19">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>4</v>
       </c>
       <c r="AL19" t="s">
@@ -4921,7 +4918,7 @@
         <v>17</v>
       </c>
       <c r="AP19">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>3</v>
       </c>
       <c r="AR19" t="s">
@@ -4935,14 +4932,14 @@
         <v>15</v>
       </c>
       <c r="AV19">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>139</v>
       </c>
       <c r="AX19" t="s">
         <v>9</v>
       </c>
       <c r="AY19">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>153</v>
       </c>
       <c r="BA19" t="s">
@@ -4956,82 +4953,82 @@
         <v>14</v>
       </c>
       <c r="BE19">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>108</v>
       </c>
       <c r="BG19" t="s">
         <v>5</v>
       </c>
       <c r="BH19">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
       <c r="BI19">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BJ19">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
       <c r="BK19">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="BL19">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="BM19">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="BN19">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>1</v>
       </c>
       <c r="BO19">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
       <c r="BP19">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="BQ19">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="BR19">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="BS19">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="26"/>
         <v>1</v>
       </c>
       <c r="BT19">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v>1</v>
       </c>
       <c r="BU19">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="BV19">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="29"/>
         <v>1</v>
       </c>
       <c r="BW19">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="BX19">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="BY19">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="32"/>
         <v>1</v>
       </c>
     </row>
@@ -5040,21 +5037,21 @@
         <v>13</v>
       </c>
       <c r="B20">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="34"/>
         <v>153</v>
       </c>
       <c r="C20" t="s">
         <v>20</v>
       </c>
       <c r="D20">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>3</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>2.25</v>
       </c>
       <c r="G20" s="3">
@@ -5157,7 +5154,7 @@
         <v>21</v>
       </c>
       <c r="AJ20">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>6</v>
       </c>
       <c r="AL20" t="s">
@@ -5171,7 +5168,7 @@
         <v>17</v>
       </c>
       <c r="AP20">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>3</v>
       </c>
       <c r="AR20" t="s">
@@ -5185,14 +5182,14 @@
         <v>15</v>
       </c>
       <c r="AV20">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>153</v>
       </c>
       <c r="AX20" t="s">
         <v>9</v>
       </c>
       <c r="AY20">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>163</v>
       </c>
       <c r="BA20" t="s">
@@ -5206,82 +5203,82 @@
         <v>14</v>
       </c>
       <c r="BE20">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>135</v>
       </c>
       <c r="BG20" t="s">
         <v>5</v>
       </c>
       <c r="BH20">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
       <c r="BI20">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BJ20">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
       <c r="BK20">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="BL20">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="BM20">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="BN20">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>1</v>
       </c>
       <c r="BO20">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
       <c r="BP20">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="BQ20">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="BR20">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="BS20">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="BT20">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v>1</v>
       </c>
       <c r="BU20">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="BV20">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="29"/>
         <v>1</v>
       </c>
       <c r="BW20">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="BX20">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="BY20">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="32"/>
         <v>1</v>
       </c>
     </row>
@@ -5290,21 +5287,21 @@
         <v>13</v>
       </c>
       <c r="B21">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="34"/>
         <v>163</v>
       </c>
       <c r="C21" t="s">
         <v>20</v>
       </c>
       <c r="D21">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>3</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>2.25</v>
       </c>
       <c r="G21" s="3">
@@ -5407,7 +5404,7 @@
         <v>21</v>
       </c>
       <c r="AJ21">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="AL21" t="s">
@@ -5421,7 +5418,7 @@
         <v>17</v>
       </c>
       <c r="AP21">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>3</v>
       </c>
       <c r="AR21" t="s">
@@ -5435,14 +5432,14 @@
         <v>15</v>
       </c>
       <c r="AV21">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>163</v>
       </c>
       <c r="AX21" t="s">
         <v>9</v>
       </c>
       <c r="AY21">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>169</v>
       </c>
       <c r="BA21" t="s">
@@ -5456,82 +5453,82 @@
         <v>14</v>
       </c>
       <c r="BE21">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>153</v>
       </c>
       <c r="BG21" t="s">
         <v>5</v>
       </c>
       <c r="BH21">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
       <c r="BI21">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BJ21">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
       <c r="BK21">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="BL21">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="BM21">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="BN21">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>1</v>
       </c>
       <c r="BO21">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
       <c r="BP21">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="BQ21">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="BR21">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="BS21">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="BT21">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v>1</v>
       </c>
       <c r="BU21">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="BV21">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="29"/>
         <v>1</v>
       </c>
       <c r="BW21">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="BX21">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="BY21">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
     </row>
@@ -5540,21 +5537,21 @@
         <v>13</v>
       </c>
       <c r="B22">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="34"/>
         <v>169</v>
       </c>
       <c r="C22" t="s">
         <v>20</v>
       </c>
       <c r="D22">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>3</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>2.25</v>
       </c>
       <c r="G22" s="3">
@@ -5657,7 +5654,7 @@
         <v>21</v>
       </c>
       <c r="AJ22">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>10</v>
       </c>
       <c r="AL22" t="s">
@@ -5671,7 +5668,7 @@
         <v>17</v>
       </c>
       <c r="AP22">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>3</v>
       </c>
       <c r="AR22" t="s">
@@ -5685,14 +5682,14 @@
         <v>15</v>
       </c>
       <c r="AV22">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>169</v>
       </c>
       <c r="AX22" t="s">
         <v>9</v>
       </c>
       <c r="AY22">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>171</v>
       </c>
       <c r="BA22" t="s">
@@ -5706,82 +5703,82 @@
         <v>14</v>
       </c>
       <c r="BE22">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>149</v>
       </c>
       <c r="BG22" t="s">
         <v>5</v>
       </c>
       <c r="BH22">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
       <c r="BI22">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BJ22">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
       <c r="BK22">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="BL22">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="BM22">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="BN22">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>1</v>
       </c>
       <c r="BO22">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
       <c r="BP22">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="BQ22">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="BR22">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="BS22">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="BT22">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v>1</v>
       </c>
       <c r="BU22">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="BV22">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="BW22">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="BX22">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="BY22">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
     </row>
@@ -5790,89 +5787,89 @@
         <v>13</v>
       </c>
       <c r="B23">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="34"/>
         <v>171</v>
       </c>
       <c r="C23" t="s">
         <v>20</v>
       </c>
       <c r="D23">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>3</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F23" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>2.25</v>
       </c>
       <c r="G23" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.7583333333333333</v>
       </c>
       <c r="H23" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.7142857142857143</v>
       </c>
       <c r="I23" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.52127659574468088</v>
       </c>
       <c r="J23" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.30967741935483872</v>
       </c>
       <c r="K23" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>4.8787878787878789</v>
       </c>
       <c r="L23" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.28846153846153844</v>
       </c>
       <c r="M23" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.65454545454545465</v>
       </c>
       <c r="N23" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>2.6962962962962962</v>
       </c>
       <c r="O23" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.36842105263157893</v>
       </c>
       <c r="P23" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.57089201877934281</v>
       </c>
       <c r="Q23" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>4.0714285714285712</v>
       </c>
       <c r="R23" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.13580246913580249</v>
       </c>
       <c r="S23" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.38787878787878788</v>
       </c>
       <c r="T23" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.78671328671328666</v>
       </c>
       <c r="U23" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.19047619047619047</v>
       </c>
       <c r="V23" s="3">
-        <f t="shared" ref="V23:W25" ca="1" si="34">(1/V$3+$B$2/(MAX(OFFSET($Z$3,$D23-1,V$5-1),$B$6)))*V$6*1/(MAX(V$4-V$2-$B23,$B$5)^$B$4)</f>
+        <f t="shared" ref="V23:W25" ca="1" si="35">(1/V$3+$B$2/(MAX(OFFSET($Z$3,$D23-1,V$5-1),$B$6)))*V$6*1/(MAX(V$4-V$2-$B23,$B$5)^$B$4)</f>
         <v>0.7857142857142857</v>
       </c>
       <c r="W23" s="3">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0.6875</v>
       </c>
       <c r="Y23" t="s">
@@ -5907,7 +5904,7 @@
         <v>21</v>
       </c>
       <c r="AJ23">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>3</v>
       </c>
       <c r="AL23" t="s">
@@ -5921,7 +5918,7 @@
         <v>17</v>
       </c>
       <c r="AP23">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
       <c r="AR23" t="s">
@@ -5935,14 +5932,14 @@
         <v>15</v>
       </c>
       <c r="AV23">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>173</v>
       </c>
       <c r="AX23" t="s">
         <v>9</v>
       </c>
       <c r="AY23">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>175</v>
       </c>
       <c r="BA23" t="s">
@@ -5956,82 +5953,82 @@
         <v>14</v>
       </c>
       <c r="BE23">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>128</v>
       </c>
       <c r="BG23" t="s">
         <v>5</v>
       </c>
       <c r="BH23">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
       <c r="BI23">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BJ23">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
       <c r="BK23">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="BL23">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="BM23">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="BN23">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>1</v>
       </c>
       <c r="BO23">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
       <c r="BP23">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="BQ23">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="BR23">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="BS23">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="BT23">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v>1</v>
       </c>
       <c r="BU23">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="BV23">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="BW23">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="BX23">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="BY23">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
     </row>
@@ -6040,89 +6037,89 @@
         <v>13</v>
       </c>
       <c r="B24">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="34"/>
         <v>175</v>
       </c>
       <c r="C24" t="s">
         <v>20</v>
       </c>
       <c r="D24">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F24" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>6.75</v>
       </c>
       <c r="G24" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.7583333333333333</v>
       </c>
       <c r="H24" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>9.5238095238095233E-2</v>
       </c>
       <c r="I24" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>2.021276595744681</v>
       </c>
       <c r="J24" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.30967741935483872</v>
       </c>
       <c r="K24" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.54545454545454541</v>
       </c>
       <c r="L24" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1.7307692307692308</v>
       </c>
       <c r="M24" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.65454545454545465</v>
       </c>
       <c r="N24" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.22010582010582011</v>
       </c>
       <c r="O24" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1.368421052631579</v>
       </c>
       <c r="P24" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.57089201877934281</v>
       </c>
       <c r="Q24" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.35714285714285704</v>
       </c>
       <c r="R24" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.55072463768115942</v>
       </c>
       <c r="S24" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.38787878787878788</v>
       </c>
       <c r="T24" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>8.5596221959858332E-2</v>
       </c>
       <c r="U24" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.69047619047619058</v>
       </c>
       <c r="V24" s="3">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0.7857142857142857</v>
       </c>
       <c r="W24" s="3">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="35"/>
         <v>6.8452380952380945E-2</v>
       </c>
       <c r="Y24" t="s">
@@ -6157,7 +6154,7 @@
         <v>21</v>
       </c>
       <c r="AJ24">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>5</v>
       </c>
       <c r="AL24" t="s">
@@ -6171,7 +6168,7 @@
         <v>17</v>
       </c>
       <c r="AP24">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
       <c r="AR24" t="s">
@@ -6185,14 +6182,14 @@
         <v>15</v>
       </c>
       <c r="AV24">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>175</v>
       </c>
       <c r="AX24" t="s">
         <v>9</v>
       </c>
       <c r="AY24">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>183</v>
       </c>
       <c r="BA24" t="s">
@@ -6206,82 +6203,82 @@
         <v>14</v>
       </c>
       <c r="BE24">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>170</v>
       </c>
       <c r="BG24" t="s">
         <v>5</v>
       </c>
       <c r="BH24">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
       <c r="BI24">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BJ24">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
       <c r="BK24">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="BL24">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="BM24">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="BN24">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
       <c r="BO24">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
       <c r="BP24">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="BQ24">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="BR24">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="BS24">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="BT24">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v>1</v>
       </c>
       <c r="BU24">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="BV24">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="BW24">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="BX24">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="BY24">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
     </row>
@@ -6290,89 +6287,89 @@
         <v>13</v>
       </c>
       <c r="B25">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="34"/>
         <v>183</v>
       </c>
       <c r="C25" t="s">
         <v>20</v>
       </c>
       <c r="D25">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F25" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>6.75</v>
       </c>
       <c r="G25" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.7583333333333333</v>
       </c>
       <c r="H25" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>9.5238095238095233E-2</v>
       </c>
       <c r="I25" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>2.021276595744681</v>
       </c>
       <c r="J25" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.30967741935483872</v>
       </c>
       <c r="K25" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.54545454545454541</v>
       </c>
       <c r="L25" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>3.4615384615384617</v>
       </c>
       <c r="M25" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.65454545454545465</v>
       </c>
       <c r="N25" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.22010582010582011</v>
       </c>
       <c r="O25" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1.368421052631579</v>
       </c>
       <c r="P25" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.57089201877934281</v>
       </c>
       <c r="Q25" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.35714285714285704</v>
       </c>
       <c r="R25" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.84444444444444455</v>
       </c>
       <c r="S25" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.38787878787878788</v>
       </c>
       <c r="T25" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.13450834879406309</v>
       </c>
       <c r="U25" s="3">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.69047619047619058</v>
       </c>
       <c r="V25" s="3">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0.7857142857142857</v>
       </c>
       <c r="W25" s="3">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="35"/>
         <v>6.8452380952380945E-2</v>
       </c>
       <c r="Y25" t="s">
@@ -6407,7 +6404,7 @@
         <v>21</v>
       </c>
       <c r="AJ25">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>6</v>
       </c>
       <c r="AL25" t="s">
@@ -6421,7 +6418,7 @@
         <v>17</v>
       </c>
       <c r="AP25">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
       <c r="AR25" t="s">
@@ -6435,14 +6432,14 @@
         <v>15</v>
       </c>
       <c r="AV25">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>183</v>
       </c>
       <c r="AX25" t="s">
         <v>9</v>
       </c>
       <c r="AY25">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>198</v>
       </c>
       <c r="BA25" t="s">
@@ -6456,82 +6453,82 @@
         <v>14</v>
       </c>
       <c r="BE25">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>189</v>
       </c>
       <c r="BG25" t="s">
         <v>5</v>
       </c>
       <c r="BH25">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
       <c r="BI25">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BJ25">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
       <c r="BK25">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="BL25">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="BM25">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="BN25">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
       <c r="BO25">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
       <c r="BP25">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="BQ25">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="BR25">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="BS25">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="BT25">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="BU25">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="BV25">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="BW25">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="BX25">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="BY25">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
     </row>
@@ -6696,7 +6693,7 @@
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2">
-        <f t="shared" ref="N37" ca="1" si="35">OFFSET(B$8, G37-1,0)</f>
+        <f t="shared" ref="N37" ca="1" si="36">OFFSET(B$8, G37-1,0)</f>
         <v>15</v>
       </c>
       <c r="O37" s="2">
@@ -6734,7 +6731,7 @@
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2">
-        <f t="shared" ref="N38" ca="1" si="36">OFFSET(AS$8, O38-1,0)+N37</f>
+        <f t="shared" ref="N38" ca="1" si="37">OFFSET(AS$8, O38-1,0)+N37</f>
         <v>15</v>
       </c>
       <c r="O38" s="2">
@@ -6766,7 +6763,7 @@
         <v>25</v>
       </c>
       <c r="G40" s="2">
-        <f t="shared" ref="G40" si="37">G37+1</f>
+        <f t="shared" ref="G40" si="38">G37+1</f>
         <v>3</v>
       </c>
       <c r="H40" s="2" t="s">
@@ -6778,7 +6775,7 @@
         <v>19</v>
       </c>
       <c r="K40" s="2">
-        <f t="shared" ref="K40" si="38">K37+1</f>
+        <f t="shared" ref="K40" si="39">K37+1</f>
         <v>3</v>
       </c>
       <c r="L40" s="2" t="s">
@@ -6786,11 +6783,11 @@
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2">
-        <f t="shared" ref="N40" ca="1" si="39">OFFSET(B$8, G40-1,0)</f>
+        <f t="shared" ref="N40" ca="1" si="40">OFFSET(B$8, G40-1,0)</f>
         <v>25</v>
       </c>
       <c r="O40" s="2">
-        <f t="shared" ref="O40" si="40">O37+1</f>
+        <f t="shared" ref="O40" si="41">O37+1</f>
         <v>3</v>
       </c>
       <c r="P40" s="2" t="s">
@@ -6824,7 +6821,7 @@
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2">
-        <f t="shared" ref="N41" ca="1" si="41">OFFSET(AS$8, O41-1,0)+N40</f>
+        <f t="shared" ref="N41" ca="1" si="42">OFFSET(AS$8, O41-1,0)+N40</f>
         <v>25</v>
       </c>
       <c r="O41" s="2">
@@ -6856,7 +6853,7 @@
         <v>42</v>
       </c>
       <c r="G43" s="2">
-        <f t="shared" ref="G43" si="42">G40+1</f>
+        <f t="shared" ref="G43" si="43">G40+1</f>
         <v>4</v>
       </c>
       <c r="H43" s="2" t="s">
@@ -6864,11 +6861,11 @@
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2">
-        <f t="shared" ref="J43" ca="1" si="43">OFFSET(AG$8, K43-1,0)</f>
+        <f t="shared" ref="J43" ca="1" si="44">OFFSET(AG$8, K43-1,0)</f>
         <v>7</v>
       </c>
       <c r="K43" s="2">
-        <f t="shared" ref="K43:K85" si="44">K40+1</f>
+        <f t="shared" ref="K43:K85" si="45">K40+1</f>
         <v>4</v>
       </c>
       <c r="L43" s="2" t="s">
@@ -6876,11 +6873,11 @@
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2">
-        <f t="shared" ref="N43" ca="1" si="45">OFFSET(B$8, G43-1,0)</f>
+        <f t="shared" ref="N43" ca="1" si="46">OFFSET(B$8, G43-1,0)</f>
         <v>35</v>
       </c>
       <c r="O43" s="2">
-        <f t="shared" ref="O43:O85" si="46">O40+1</f>
+        <f t="shared" ref="O43:O85" si="47">O40+1</f>
         <v>4</v>
       </c>
       <c r="P43" s="2" t="s">
@@ -6902,11 +6899,11 @@
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2">
-        <f t="shared" ref="J44" ca="1" si="47">OFFSET(AM$8, K44-1,0)</f>
+        <f t="shared" ref="J44" ca="1" si="48">OFFSET(AM$8, K44-1,0)</f>
         <v>36</v>
       </c>
       <c r="K44" s="2">
-        <f t="shared" ref="K44" si="48">K43</f>
+        <f t="shared" ref="K44" si="49">K43</f>
         <v>4</v>
       </c>
       <c r="L44" s="2" t="s">
@@ -6914,11 +6911,11 @@
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2">
-        <f t="shared" ref="N44" ca="1" si="49">OFFSET(AS$8, O44-1,0)+N43</f>
+        <f t="shared" ref="N44" ca="1" si="50">OFFSET(AS$8, O44-1,0)+N43</f>
         <v>42</v>
       </c>
       <c r="O44" s="2">
-        <f t="shared" ref="O44" si="50">O43</f>
+        <f t="shared" ref="O44" si="51">O43</f>
         <v>4</v>
       </c>
       <c r="P44" s="2" t="s">
@@ -6946,7 +6943,7 @@
         <v>49</v>
       </c>
       <c r="G46" s="2">
-        <f t="shared" ref="G46" si="51">G43+1</f>
+        <f t="shared" ref="G46" si="52">G43+1</f>
         <v>5</v>
       </c>
       <c r="H46" s="2" t="s">
@@ -6954,11 +6951,11 @@
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2">
-        <f t="shared" ref="J46" ca="1" si="52">OFFSET(AG$8, K46-1,0)</f>
+        <f t="shared" ref="J46" ca="1" si="53">OFFSET(AG$8, K46-1,0)</f>
         <v>11</v>
       </c>
       <c r="K46" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>5</v>
       </c>
       <c r="L46" s="2" t="s">
@@ -6966,11 +6963,11 @@
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2">
-        <f t="shared" ref="N46" ca="1" si="53">OFFSET(B$8, G46-1,0)</f>
+        <f t="shared" ref="N46" ca="1" si="54">OFFSET(B$8, G46-1,0)</f>
         <v>49</v>
       </c>
       <c r="O46" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>5</v>
       </c>
       <c r="P46" s="2" t="s">
@@ -6992,11 +6989,11 @@
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2">
-        <f t="shared" ref="J47" ca="1" si="54">OFFSET(AM$8, K47-1,0)</f>
+        <f t="shared" ref="J47" ca="1" si="55">OFFSET(AM$8, K47-1,0)</f>
         <v>70</v>
       </c>
       <c r="K47" s="2">
-        <f t="shared" ref="K47" si="55">K46</f>
+        <f t="shared" ref="K47" si="56">K46</f>
         <v>5</v>
       </c>
       <c r="L47" s="2" t="s">
@@ -7004,11 +7001,11 @@
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2">
-        <f t="shared" ref="N47" ca="1" si="56">OFFSET(AS$8, O47-1,0)+N46</f>
+        <f t="shared" ref="N47" ca="1" si="57">OFFSET(AS$8, O47-1,0)+N46</f>
         <v>49</v>
       </c>
       <c r="O47" s="2">
-        <f t="shared" ref="O47" si="57">O46</f>
+        <f t="shared" ref="O47" si="58">O46</f>
         <v>5</v>
       </c>
       <c r="P47" s="2" t="s">
@@ -7036,7 +7033,7 @@
         <v>68</v>
       </c>
       <c r="G49" s="2">
-        <f t="shared" ref="G49" si="58">G46+1</f>
+        <f t="shared" ref="G49" si="59">G46+1</f>
         <v>6</v>
       </c>
       <c r="H49" s="2" t="s">
@@ -7044,11 +7041,11 @@
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2">
-        <f t="shared" ref="J49" ca="1" si="59">OFFSET(AG$8, K49-1,0)</f>
+        <f t="shared" ref="J49" ca="1" si="60">OFFSET(AG$8, K49-1,0)</f>
         <v>11</v>
       </c>
       <c r="K49" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>6</v>
       </c>
       <c r="L49" s="2" t="s">
@@ -7056,11 +7053,11 @@
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2">
-        <f t="shared" ref="N49" ca="1" si="60">OFFSET(B$8, G49-1,0)</f>
+        <f t="shared" ref="N49" ca="1" si="61">OFFSET(B$8, G49-1,0)</f>
         <v>63</v>
       </c>
       <c r="O49" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>6</v>
       </c>
       <c r="P49" s="2" t="s">
@@ -7082,11 +7079,11 @@
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2">
-        <f t="shared" ref="J50" ca="1" si="61">OFFSET(AM$8, K50-1,0)</f>
+        <f t="shared" ref="J50" ca="1" si="62">OFFSET(AM$8, K50-1,0)</f>
         <v>70</v>
       </c>
       <c r="K50" s="2">
-        <f t="shared" ref="K50" si="62">K49</f>
+        <f t="shared" ref="K50" si="63">K49</f>
         <v>6</v>
       </c>
       <c r="L50" s="2" t="s">
@@ -7094,11 +7091,11 @@
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2">
-        <f t="shared" ref="N50" ca="1" si="63">OFFSET(AS$8, O50-1,0)+N49</f>
+        <f t="shared" ref="N50" ca="1" si="64">OFFSET(AS$8, O50-1,0)+N49</f>
         <v>68</v>
       </c>
       <c r="O50" s="2">
-        <f t="shared" ref="O50" si="64">O49</f>
+        <f t="shared" ref="O50" si="65">O49</f>
         <v>6</v>
       </c>
       <c r="P50" s="2" t="s">
@@ -7126,7 +7123,7 @@
         <v>71</v>
       </c>
       <c r="G52" s="2">
-        <f t="shared" ref="G52" si="65">G49+1</f>
+        <f t="shared" ref="G52" si="66">G49+1</f>
         <v>7</v>
       </c>
       <c r="H52" s="2" t="s">
@@ -7134,11 +7131,11 @@
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2">
-        <f t="shared" ref="J52" ca="1" si="66">OFFSET(AG$8, K52-1,0)</f>
+        <f t="shared" ref="J52" ca="1" si="67">OFFSET(AG$8, K52-1,0)</f>
         <v>28</v>
       </c>
       <c r="K52" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>7</v>
       </c>
       <c r="L52" s="2" t="s">
@@ -7146,11 +7143,11 @@
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2">
-        <f t="shared" ref="N52" ca="1" si="67">OFFSET(B$8, G52-1,0)</f>
+        <f t="shared" ref="N52" ca="1" si="68">OFFSET(B$8, G52-1,0)</f>
         <v>71</v>
       </c>
       <c r="O52" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>7</v>
       </c>
       <c r="P52" s="2" t="s">
@@ -7172,11 +7169,11 @@
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="2">
-        <f t="shared" ref="J53" ca="1" si="68">OFFSET(AM$8, K53-1,0)</f>
+        <f t="shared" ref="J53" ca="1" si="69">OFFSET(AM$8, K53-1,0)</f>
         <v>86</v>
       </c>
       <c r="K53" s="2">
-        <f t="shared" ref="K53" si="69">K52</f>
+        <f t="shared" ref="K53" si="70">K52</f>
         <v>7</v>
       </c>
       <c r="L53" s="2" t="s">
@@ -7184,11 +7181,11 @@
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2">
-        <f t="shared" ref="N53" ca="1" si="70">OFFSET(AS$8, O53-1,0)+N52</f>
+        <f t="shared" ref="N53" ca="1" si="71">OFFSET(AS$8, O53-1,0)+N52</f>
         <v>71</v>
       </c>
       <c r="O53" s="2">
-        <f t="shared" ref="O53" si="71">O52</f>
+        <f t="shared" ref="O53" si="72">O52</f>
         <v>7</v>
       </c>
       <c r="P53" s="2" t="s">
@@ -7216,7 +7213,7 @@
         <v>84</v>
       </c>
       <c r="G55" s="2">
-        <f t="shared" ref="G55" si="72">G52+1</f>
+        <f t="shared" ref="G55" si="73">G52+1</f>
         <v>8</v>
       </c>
       <c r="H55" s="2" t="s">
@@ -7224,11 +7221,11 @@
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2">
-        <f t="shared" ref="J55" ca="1" si="73">OFFSET(AG$8, K55-1,0)</f>
+        <f t="shared" ref="J55" ca="1" si="74">OFFSET(AG$8, K55-1,0)</f>
         <v>55</v>
       </c>
       <c r="K55" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>8</v>
       </c>
       <c r="L55" s="2" t="s">
@@ -7236,11 +7233,11 @@
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2">
-        <f t="shared" ref="N55" ca="1" si="74">OFFSET(B$8, G55-1,0)</f>
+        <f t="shared" ref="N55" ca="1" si="75">OFFSET(B$8, G55-1,0)</f>
         <v>84</v>
       </c>
       <c r="O55" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>8</v>
       </c>
       <c r="P55" s="2" t="s">
@@ -7262,11 +7259,11 @@
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2">
-        <f t="shared" ref="J56" ca="1" si="75">OFFSET(AM$8, K56-1,0)</f>
+        <f t="shared" ref="J56" ca="1" si="76">OFFSET(AM$8, K56-1,0)</f>
         <v>122</v>
       </c>
       <c r="K56" s="2">
-        <f t="shared" ref="K56" si="76">K55</f>
+        <f t="shared" ref="K56" si="77">K55</f>
         <v>8</v>
       </c>
       <c r="L56" s="2" t="s">
@@ -7274,11 +7271,11 @@
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2">
-        <f t="shared" ref="N56" ca="1" si="77">OFFSET(AS$8, O56-1,0)+N55</f>
+        <f t="shared" ref="N56" ca="1" si="78">OFFSET(AS$8, O56-1,0)+N55</f>
         <v>84</v>
       </c>
       <c r="O56" s="2">
-        <f t="shared" ref="O56" si="78">O55</f>
+        <f t="shared" ref="O56" si="79">O55</f>
         <v>8</v>
       </c>
       <c r="P56" s="2" t="s">
@@ -7306,7 +7303,7 @@
         <v>100</v>
       </c>
       <c r="G58" s="2">
-        <f t="shared" ref="G58" si="79">G55+1</f>
+        <f t="shared" ref="G58" si="80">G55+1</f>
         <v>9</v>
       </c>
       <c r="H58" s="2" t="s">
@@ -7314,11 +7311,11 @@
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2">
-        <f t="shared" ref="J58" ca="1" si="80">OFFSET(AG$8, K58-1,0)</f>
+        <f t="shared" ref="J58" ca="1" si="81">OFFSET(AG$8, K58-1,0)</f>
         <v>31</v>
       </c>
       <c r="K58" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>9</v>
       </c>
       <c r="L58" s="2" t="s">
@@ -7326,11 +7323,11 @@
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2">
-        <f t="shared" ref="N58" ca="1" si="81">OFFSET(B$8, G58-1,0)</f>
+        <f t="shared" ref="N58" ca="1" si="82">OFFSET(B$8, G58-1,0)</f>
         <v>100</v>
       </c>
       <c r="O58" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>9</v>
       </c>
       <c r="P58" s="2" t="s">
@@ -7352,11 +7349,11 @@
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2">
-        <f t="shared" ref="J59" ca="1" si="82">OFFSET(AM$8, K59-1,0)</f>
+        <f t="shared" ref="J59" ca="1" si="83">OFFSET(AM$8, K59-1,0)</f>
         <v>114</v>
       </c>
       <c r="K59" s="2">
-        <f t="shared" ref="K59" si="83">K58</f>
+        <f t="shared" ref="K59" si="84">K58</f>
         <v>9</v>
       </c>
       <c r="L59" s="2" t="s">
@@ -7364,11 +7361,11 @@
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2">
-        <f t="shared" ref="N59" ca="1" si="84">OFFSET(AS$8, O59-1,0)+N58</f>
+        <f t="shared" ref="N59" ca="1" si="85">OFFSET(AS$8, O59-1,0)+N58</f>
         <v>100</v>
       </c>
       <c r="O59" s="2">
-        <f t="shared" ref="O59" si="85">O58</f>
+        <f t="shared" ref="O59" si="86">O58</f>
         <v>9</v>
       </c>
       <c r="P59" s="2" t="s">
@@ -7396,7 +7393,7 @@
         <v>111</v>
       </c>
       <c r="G61" s="2">
-        <f t="shared" ref="G61" si="86">G58+1</f>
+        <f t="shared" ref="G61" si="87">G58+1</f>
         <v>10</v>
       </c>
       <c r="H61" s="2" t="s">
@@ -7404,11 +7401,11 @@
       </c>
       <c r="I61" s="2"/>
       <c r="J61" s="2">
-        <f t="shared" ref="J61" ca="1" si="87">OFFSET(AG$8, K61-1,0)</f>
+        <f t="shared" ref="J61" ca="1" si="88">OFFSET(AG$8, K61-1,0)</f>
         <v>8</v>
       </c>
       <c r="K61" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>10</v>
       </c>
       <c r="L61" s="2" t="s">
@@ -7416,11 +7413,11 @@
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2">
-        <f t="shared" ref="N61" ca="1" si="88">OFFSET(B$8, G61-1,0)</f>
+        <f t="shared" ref="N61" ca="1" si="89">OFFSET(B$8, G61-1,0)</f>
         <v>111</v>
       </c>
       <c r="O61" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>10</v>
       </c>
       <c r="P61" s="2" t="s">
@@ -7442,11 +7439,11 @@
       </c>
       <c r="I62" s="2"/>
       <c r="J62" s="2">
-        <f t="shared" ref="J62" ca="1" si="89">OFFSET(AM$8, K62-1,0)</f>
+        <f t="shared" ref="J62" ca="1" si="90">OFFSET(AM$8, K62-1,0)</f>
         <v>123</v>
       </c>
       <c r="K62" s="2">
-        <f t="shared" ref="K62" si="90">K61</f>
+        <f t="shared" ref="K62" si="91">K61</f>
         <v>10</v>
       </c>
       <c r="L62" s="2" t="s">
@@ -7454,11 +7451,11 @@
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2">
-        <f t="shared" ref="N62" ca="1" si="91">OFFSET(AS$8, O62-1,0)+N61</f>
+        <f t="shared" ref="N62" ca="1" si="92">OFFSET(AS$8, O62-1,0)+N61</f>
         <v>111</v>
       </c>
       <c r="O62" s="2">
-        <f t="shared" ref="O62" si="92">O61</f>
+        <f t="shared" ref="O62" si="93">O61</f>
         <v>10</v>
       </c>
       <c r="P62" s="2" t="s">
@@ -7486,7 +7483,7 @@
         <v>123</v>
       </c>
       <c r="G64" s="2">
-        <f t="shared" ref="G64" si="93">G61+1</f>
+        <f t="shared" ref="G64" si="94">G61+1</f>
         <v>11</v>
       </c>
       <c r="H64" s="2" t="s">
@@ -7494,11 +7491,11 @@
       </c>
       <c r="I64" s="2"/>
       <c r="J64" s="2">
-        <f t="shared" ref="J64" ca="1" si="94">OFFSET(AG$8, K64-1,0)</f>
+        <f t="shared" ref="J64" ca="1" si="95">OFFSET(AG$8, K64-1,0)</f>
         <v>71</v>
       </c>
       <c r="K64" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>11</v>
       </c>
       <c r="L64" s="2" t="s">
@@ -7506,11 +7503,11 @@
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2">
-        <f t="shared" ref="N64" ca="1" si="95">OFFSET(B$8, G64-1,0)</f>
+        <f t="shared" ref="N64" ca="1" si="96">OFFSET(B$8, G64-1,0)</f>
         <v>123</v>
       </c>
       <c r="O64" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="P64" s="2" t="s">
@@ -7532,11 +7529,11 @@
       </c>
       <c r="I65" s="2"/>
       <c r="J65" s="2">
-        <f t="shared" ref="J65" ca="1" si="96">OFFSET(AM$8, K65-1,0)</f>
+        <f t="shared" ref="J65" ca="1" si="97">OFFSET(AM$8, K65-1,0)</f>
         <v>152</v>
       </c>
       <c r="K65" s="2">
-        <f t="shared" ref="K65" si="97">K64</f>
+        <f t="shared" ref="K65" si="98">K64</f>
         <v>11</v>
       </c>
       <c r="L65" s="2" t="s">
@@ -7544,11 +7541,11 @@
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2">
-        <f t="shared" ref="N65" ca="1" si="98">OFFSET(AS$8, O65-1,0)+N64</f>
+        <f t="shared" ref="N65" ca="1" si="99">OFFSET(AS$8, O65-1,0)+N64</f>
         <v>123</v>
       </c>
       <c r="O65" s="2">
-        <f t="shared" ref="O65" si="99">O64</f>
+        <f t="shared" ref="O65" si="100">O64</f>
         <v>11</v>
       </c>
       <c r="P65" s="2" t="s">
@@ -7576,7 +7573,7 @@
         <v>139</v>
       </c>
       <c r="G67" s="2">
-        <f t="shared" ref="G67" si="100">G64+1</f>
+        <f t="shared" ref="G67" si="101">G64+1</f>
         <v>12</v>
       </c>
       <c r="H67" s="2" t="s">
@@ -7584,11 +7581,11 @@
       </c>
       <c r="I67" s="2"/>
       <c r="J67" s="2">
-        <f t="shared" ref="J67" ca="1" si="101">OFFSET(AG$8, K67-1,0)</f>
+        <f t="shared" ref="J67" ca="1" si="102">OFFSET(AG$8, K67-1,0)</f>
         <v>45</v>
       </c>
       <c r="K67" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>12</v>
       </c>
       <c r="L67" s="2" t="s">
@@ -7596,11 +7593,11 @@
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2">
-        <f t="shared" ref="N67" ca="1" si="102">OFFSET(B$8, G67-1,0)</f>
+        <f t="shared" ref="N67" ca="1" si="103">OFFSET(B$8, G67-1,0)</f>
         <v>130</v>
       </c>
       <c r="O67" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>12</v>
       </c>
       <c r="P67" s="2" t="s">
@@ -7622,11 +7619,11 @@
       </c>
       <c r="I68" s="2"/>
       <c r="J68" s="2">
-        <f t="shared" ref="J68" ca="1" si="103">OFFSET(AM$8, K68-1,0)</f>
+        <f t="shared" ref="J68" ca="1" si="104">OFFSET(AM$8, K68-1,0)</f>
         <v>120</v>
       </c>
       <c r="K68" s="2">
-        <f t="shared" ref="K68" si="104">K67</f>
+        <f t="shared" ref="K68" si="105">K67</f>
         <v>12</v>
       </c>
       <c r="L68" s="2" t="s">
@@ -7634,11 +7631,11 @@
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2">
-        <f t="shared" ref="N68" ca="1" si="105">OFFSET(AS$8, O68-1,0)+N67</f>
+        <f t="shared" ref="N68" ca="1" si="106">OFFSET(AS$8, O68-1,0)+N67</f>
         <v>139</v>
       </c>
       <c r="O68" s="2">
-        <f t="shared" ref="O68" si="106">O67</f>
+        <f t="shared" ref="O68" si="107">O67</f>
         <v>12</v>
       </c>
       <c r="P68" s="2" t="s">
@@ -7666,7 +7663,7 @@
         <v>153</v>
       </c>
       <c r="G70" s="2">
-        <f t="shared" ref="G70" si="107">G67+1</f>
+        <f t="shared" ref="G70" si="108">G67+1</f>
         <v>13</v>
       </c>
       <c r="H70" s="2" t="s">
@@ -7674,11 +7671,11 @@
       </c>
       <c r="I70" s="2"/>
       <c r="J70" s="2">
-        <f t="shared" ref="J70" ca="1" si="108">OFFSET(AG$8, K70-1,0)</f>
+        <f t="shared" ref="J70" ca="1" si="109">OFFSET(AG$8, K70-1,0)</f>
         <v>28</v>
       </c>
       <c r="K70" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>13</v>
       </c>
       <c r="L70" s="2" t="s">
@@ -7686,11 +7683,11 @@
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2">
-        <f t="shared" ref="N70" ca="1" si="109">OFFSET(B$8, G70-1,0)</f>
+        <f t="shared" ref="N70" ca="1" si="110">OFFSET(B$8, G70-1,0)</f>
         <v>153</v>
       </c>
       <c r="O70" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>13</v>
       </c>
       <c r="P70" s="2" t="s">
@@ -7712,11 +7709,11 @@
       </c>
       <c r="I71" s="2"/>
       <c r="J71" s="2">
-        <f t="shared" ref="J71" ca="1" si="110">OFFSET(AM$8, K71-1,0)</f>
+        <f t="shared" ref="J71" ca="1" si="111">OFFSET(AM$8, K71-1,0)</f>
         <v>182</v>
       </c>
       <c r="K71" s="2">
-        <f t="shared" ref="K71" si="111">K70</f>
+        <f t="shared" ref="K71" si="112">K70</f>
         <v>13</v>
       </c>
       <c r="L71" s="2" t="s">
@@ -7724,11 +7721,11 @@
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2">
-        <f t="shared" ref="N71" ca="1" si="112">OFFSET(AS$8, O71-1,0)+N70</f>
+        <f t="shared" ref="N71" ca="1" si="113">OFFSET(AS$8, O71-1,0)+N70</f>
         <v>153</v>
       </c>
       <c r="O71" s="2">
-        <f t="shared" ref="O71" si="113">O70</f>
+        <f t="shared" ref="O71" si="114">O70</f>
         <v>13</v>
       </c>
       <c r="P71" s="2" t="s">
@@ -7764,11 +7761,11 @@
       </c>
       <c r="I73" s="2"/>
       <c r="J73" s="2">
-        <f t="shared" ref="J73" ca="1" si="114">OFFSET(AG$8, K73-1,0)</f>
+        <f t="shared" ref="J73" ca="1" si="115">OFFSET(AG$8, K73-1,0)</f>
         <v>16</v>
       </c>
       <c r="K73" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>14</v>
       </c>
       <c r="L73" s="2" t="s">
@@ -7776,11 +7773,11 @@
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2">
-        <f t="shared" ref="N73" ca="1" si="115">OFFSET(B$8, G73-1,0)</f>
+        <f t="shared" ref="N73" ca="1" si="116">OFFSET(B$8, G73-1,0)</f>
         <v>163</v>
       </c>
       <c r="O73" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>14</v>
       </c>
       <c r="P73" s="2" t="s">
@@ -7802,11 +7799,11 @@
       </c>
       <c r="I74" s="2"/>
       <c r="J74" s="2">
-        <f t="shared" ref="J74" ca="1" si="116">OFFSET(AM$8, K74-1,0)</f>
+        <f t="shared" ref="J74" ca="1" si="117">OFFSET(AM$8, K74-1,0)</f>
         <v>171</v>
       </c>
       <c r="K74" s="2">
-        <f t="shared" ref="K74" si="117">K73</f>
+        <f t="shared" ref="K74" si="118">K73</f>
         <v>14</v>
       </c>
       <c r="L74" s="2" t="s">
@@ -7814,11 +7811,11 @@
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2">
-        <f t="shared" ref="N74" ca="1" si="118">OFFSET(AS$8, O74-1,0)+N73</f>
+        <f t="shared" ref="N74" ca="1" si="119">OFFSET(AS$8, O74-1,0)+N73</f>
         <v>163</v>
       </c>
       <c r="O74" s="2">
-        <f t="shared" ref="O74" si="119">O73</f>
+        <f t="shared" ref="O74" si="120">O73</f>
         <v>14</v>
       </c>
       <c r="P74" s="2" t="s">
@@ -7846,7 +7843,7 @@
         <v>169</v>
       </c>
       <c r="G76" s="2">
-        <f t="shared" ref="G76" si="120">G73+1</f>
+        <f t="shared" ref="G76" si="121">G73+1</f>
         <v>15</v>
       </c>
       <c r="H76" s="2" t="s">
@@ -7854,11 +7851,11 @@
       </c>
       <c r="I76" s="2"/>
       <c r="J76" s="2">
-        <f t="shared" ref="J76" ca="1" si="121">OFFSET(AG$8, K76-1,0)</f>
+        <f t="shared" ref="J76" ca="1" si="122">OFFSET(AG$8, K76-1,0)</f>
         <v>22</v>
       </c>
       <c r="K76" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>15</v>
       </c>
       <c r="L76" s="2" t="s">
@@ -7866,11 +7863,11 @@
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2">
-        <f t="shared" ref="N76" ca="1" si="122">OFFSET(B$8, G76-1,0)</f>
+        <f t="shared" ref="N76" ca="1" si="123">OFFSET(B$8, G76-1,0)</f>
         <v>169</v>
       </c>
       <c r="O76" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>15</v>
       </c>
       <c r="P76" s="2" t="s">
@@ -7892,11 +7889,11 @@
       </c>
       <c r="I77" s="2"/>
       <c r="J77" s="2">
-        <f t="shared" ref="J77" ca="1" si="123">OFFSET(AM$8, K77-1,0)</f>
+        <f t="shared" ref="J77" ca="1" si="124">OFFSET(AM$8, K77-1,0)</f>
         <v>199</v>
       </c>
       <c r="K77" s="2">
-        <f t="shared" ref="K77" si="124">K76</f>
+        <f t="shared" ref="K77" si="125">K76</f>
         <v>15</v>
       </c>
       <c r="L77" s="2" t="s">
@@ -7904,11 +7901,11 @@
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2">
-        <f t="shared" ref="N77" ca="1" si="125">OFFSET(AS$8, O77-1,0)+N76</f>
+        <f t="shared" ref="N77" ca="1" si="126">OFFSET(AS$8, O77-1,0)+N76</f>
         <v>169</v>
       </c>
       <c r="O77" s="2">
-        <f t="shared" ref="O77" si="126">O76</f>
+        <f t="shared" ref="O77" si="127">O76</f>
         <v>15</v>
       </c>
       <c r="P77" s="2" t="s">
@@ -7936,7 +7933,7 @@
         <v>173</v>
       </c>
       <c r="G79" s="2">
-        <f t="shared" ref="G79" si="127">G76+1</f>
+        <f t="shared" ref="G79" si="128">G76+1</f>
         <v>16</v>
       </c>
       <c r="H79" s="2" t="s">
@@ -7944,11 +7941,11 @@
       </c>
       <c r="I79" s="2"/>
       <c r="J79" s="2">
-        <f t="shared" ref="J79" ca="1" si="128">OFFSET(AG$8, K79-1,0)</f>
+        <f t="shared" ref="J79" ca="1" si="129">OFFSET(AG$8, K79-1,0)</f>
         <v>47</v>
       </c>
       <c r="K79" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>16</v>
       </c>
       <c r="L79" s="2" t="s">
@@ -7956,11 +7953,11 @@
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2">
-        <f t="shared" ref="N79" ca="1" si="129">OFFSET(B$8, G79-1,0)</f>
+        <f t="shared" ref="N79" ca="1" si="130">OFFSET(B$8, G79-1,0)</f>
         <v>171</v>
       </c>
       <c r="O79" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>16</v>
       </c>
       <c r="P79" s="2" t="s">
@@ -7982,11 +7979,11 @@
       </c>
       <c r="I80" s="2"/>
       <c r="J80" s="2">
-        <f t="shared" ref="J80" ca="1" si="130">OFFSET(AM$8, K80-1,0)</f>
+        <f t="shared" ref="J80" ca="1" si="131">OFFSET(AM$8, K80-1,0)</f>
         <v>166</v>
       </c>
       <c r="K80" s="2">
-        <f t="shared" ref="K80" si="131">K79</f>
+        <f t="shared" ref="K80" si="132">K79</f>
         <v>16</v>
       </c>
       <c r="L80" s="2" t="s">
@@ -7994,11 +7991,11 @@
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2">
-        <f t="shared" ref="N80" ca="1" si="132">OFFSET(AS$8, O80-1,0)+N79</f>
+        <f t="shared" ref="N80" ca="1" si="133">OFFSET(AS$8, O80-1,0)+N79</f>
         <v>173</v>
       </c>
       <c r="O80" s="2">
-        <f t="shared" ref="O80" si="133">O79</f>
+        <f t="shared" ref="O80" si="134">O79</f>
         <v>16</v>
       </c>
       <c r="P80" s="2" t="s">
@@ -8026,7 +8023,7 @@
         <v>175</v>
       </c>
       <c r="G82" s="2">
-        <f t="shared" ref="G82" si="134">G79+1</f>
+        <f t="shared" ref="G82" si="135">G79+1</f>
         <v>17</v>
       </c>
       <c r="H82" s="2" t="s">
@@ -8034,11 +8031,11 @@
       </c>
       <c r="I82" s="2"/>
       <c r="J82" s="2">
-        <f t="shared" ref="J82" ca="1" si="135">OFFSET(AG$8, K82-1,0)</f>
+        <f t="shared" ref="J82" ca="1" si="136">OFFSET(AG$8, K82-1,0)</f>
         <v>13</v>
       </c>
       <c r="K82" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>17</v>
       </c>
       <c r="L82" s="2" t="s">
@@ -8046,11 +8043,11 @@
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2">
-        <f t="shared" ref="N82" ca="1" si="136">OFFSET(B$8, G82-1,0)</f>
+        <f t="shared" ref="N82" ca="1" si="137">OFFSET(B$8, G82-1,0)</f>
         <v>175</v>
       </c>
       <c r="O82" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>17</v>
       </c>
       <c r="P82" s="2" t="s">
@@ -8072,11 +8069,11 @@
       </c>
       <c r="I83" s="2"/>
       <c r="J83" s="2">
-        <f t="shared" ref="J83" ca="1" si="137">OFFSET(AM$8, K83-1,0)</f>
+        <f t="shared" ref="J83" ca="1" si="138">OFFSET(AM$8, K83-1,0)</f>
         <v>189</v>
       </c>
       <c r="K83" s="2">
-        <f t="shared" ref="K83" si="138">K82</f>
+        <f t="shared" ref="K83" si="139">K82</f>
         <v>17</v>
       </c>
       <c r="L83" s="2" t="s">
@@ -8084,11 +8081,11 @@
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2">
-        <f t="shared" ref="N83" ca="1" si="139">OFFSET(AS$8, O83-1,0)+N82</f>
+        <f t="shared" ref="N83" ca="1" si="140">OFFSET(AS$8, O83-1,0)+N82</f>
         <v>175</v>
       </c>
       <c r="O83" s="2">
-        <f t="shared" ref="O83" si="140">O82</f>
+        <f t="shared" ref="O83" si="141">O82</f>
         <v>17</v>
       </c>
       <c r="P83" s="2" t="s">
@@ -8116,7 +8113,7 @@
         <v>183</v>
       </c>
       <c r="G85" s="2">
-        <f t="shared" ref="G85" si="141">G82+1</f>
+        <f t="shared" ref="G85" si="142">G82+1</f>
         <v>18</v>
       </c>
       <c r="H85" s="2" t="s">
@@ -8124,11 +8121,11 @@
       </c>
       <c r="I85" s="2"/>
       <c r="J85" s="2">
-        <f t="shared" ref="J85" ca="1" si="142">OFFSET(AG$8, K85-1,0)</f>
+        <f t="shared" ref="J85" ca="1" si="143">OFFSET(AG$8, K85-1,0)</f>
         <v>9</v>
       </c>
       <c r="K85" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>18</v>
       </c>
       <c r="L85" s="2" t="s">
@@ -8136,11 +8133,11 @@
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2">
-        <f t="shared" ref="N85" ca="1" si="143">OFFSET(B$8, G85-1,0)</f>
+        <f t="shared" ref="N85" ca="1" si="144">OFFSET(B$8, G85-1,0)</f>
         <v>183</v>
       </c>
       <c r="O85" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>18</v>
       </c>
       <c r="P85" s="2" t="s">
@@ -8162,11 +8159,11 @@
       </c>
       <c r="I86" s="2"/>
       <c r="J86" s="2">
-        <f t="shared" ref="J86" ca="1" si="144">OFFSET(AM$8, K86-1,0)</f>
+        <f t="shared" ref="J86" ca="1" si="145">OFFSET(AM$8, K86-1,0)</f>
         <v>213</v>
       </c>
       <c r="K86" s="2">
-        <f t="shared" ref="K86" si="145">K85</f>
+        <f t="shared" ref="K86" si="146">K85</f>
         <v>18</v>
       </c>
       <c r="L86" s="2" t="s">
@@ -8174,11 +8171,11 @@
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2">
-        <f t="shared" ref="N86" ca="1" si="146">OFFSET(AS$8, O86-1,0)+N85</f>
+        <f t="shared" ref="N86" ca="1" si="147">OFFSET(AS$8, O86-1,0)+N85</f>
         <v>183</v>
       </c>
       <c r="O86" s="2">
-        <f t="shared" ref="O86" si="147">O85</f>
+        <f t="shared" ref="O86" si="148">O85</f>
         <v>18</v>
       </c>
       <c r="P86" s="2" t="s">
